--- a/medicine/Enfance/Olivier_Gay/Olivier_Gay.xlsx
+++ b/medicine/Enfance/Olivier_Gay/Olivier_Gay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Gay, né en 1979 à Grenoble (France), est un écrivain français de roman policier, de fantasy et fantastique, pour les adultes et pour la jeunesse, ainsi qu'un scénariste de bande dessinée.
-Il écrit également des billets d'humeur dans le magazine féminin Cosmo et a collaboré à plus de cent romans pour la Bibliothèque rose et la Bibliothèque verte. Il annonce en mars 2021 avoir dépassé les 200 romans publiés[1].
-Depuis 2018, il est l'adaptateur officiel des films et séries animées d'Astérix. Il adapte ainsi le film Astérix et le secret de la potion magique d'Alexandre Astier et Louis Clichy[2], puis le film Astérix et Obélix : L'Empire du Milieu de Guillaume Canet[3].
+Il écrit également des billets d'humeur dans le magazine féminin Cosmo et a collaboré à plus de cent romans pour la Bibliothèque rose et la Bibliothèque verte. Il annonce en mars 2021 avoir dépassé les 200 romans publiés.
+Depuis 2018, il est l'adaptateur officiel des films et séries animées d'Astérix. Il adapte ainsi le film Astérix et le secret de la potion magique d'Alexandre Astier et Louis Clichy, puis le film Astérix et Obélix : L'Empire du Milieu de Guillaume Canet.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Gay naît en 1979 à Grenoble[4],[5]. D’abord manager en cabinet de conseil, le succès de Les talons hauts rapprochent les filles du ciel lui permet ensuite de vivre de ses écrits[5].
-Son premier roman, Les talons hauts rapprochent les filles du ciel, remporte en 2012 le prix du premier roman policier du Festival du film policier de Beaune[6]. Dans ce roman apparaît le personnage maladroit de Fitz, un coureur de jupons professionnel dans la trentaine, également fêtard impénitent et dealer spécialisé dans la cocaïne, qui revient dans Les mannequins ne sont pas des filles modèles (2013) et Mais je fais quoi du corps ? (2014).
-Son premier roman de fantasy, Le Boucher, est nommé au prix Révélations futuriales[7] avant d'être repris en intégrale par les éditions Bragelonne.
-Sa série jeunesse est accueillie avec enthousiasme par la critique[8] et remporte le prix Sélection Histoires de romans 2014[9] ainsi que plusieurs prix de collégiens et lycéens comme le prix Chimères (11-14 ans)[10], le prix des Lecteurs en Seine (13-20 ans)[11] ou le prix Ados Hautes-Pyrénées[12].
-Il écrit ensuite de nombreux livres chez Rageot, Albin Michel ou Gallimard Jeunesse, avec la même volonté d'amener à la lecture des enfants qui ont des difficultés scolaires ou n'aiment pas lire. C'est ainsi qu'il invente des romans pour dyslexiques et d'autres basés sur les univers des jeux vidéo (Fortnite, Minecraft ou Assassin's Creed)[13].
-En 2019, il est recruté par Christophe Arleston pour devenir scénariste de bande dessinée au sein du label Drakoo où il signe de nombreuses séries[14].
-En 2020, il reprend la célèbre série Frigiel &amp; Fluffy pour lequel il a écrit huit romans à ce jour[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Gay naît en 1979 à Grenoble,. D’abord manager en cabinet de conseil, le succès de Les talons hauts rapprochent les filles du ciel lui permet ensuite de vivre de ses écrits.
+Son premier roman, Les talons hauts rapprochent les filles du ciel, remporte en 2012 le prix du premier roman policier du Festival du film policier de Beaune. Dans ce roman apparaît le personnage maladroit de Fitz, un coureur de jupons professionnel dans la trentaine, également fêtard impénitent et dealer spécialisé dans la cocaïne, qui revient dans Les mannequins ne sont pas des filles modèles (2013) et Mais je fais quoi du corps ? (2014).
+Son premier roman de fantasy, Le Boucher, est nommé au prix Révélations futuriales avant d'être repris en intégrale par les éditions Bragelonne.
+Sa série jeunesse est accueillie avec enthousiasme par la critique et remporte le prix Sélection Histoires de romans 2014 ainsi que plusieurs prix de collégiens et lycéens comme le prix Chimères (11-14 ans), le prix des Lecteurs en Seine (13-20 ans) ou le prix Ados Hautes-Pyrénées.
+Il écrit ensuite de nombreux livres chez Rageot, Albin Michel ou Gallimard Jeunesse, avec la même volonté d'amener à la lecture des enfants qui ont des difficultés scolaires ou n'aiment pas lire. C'est ainsi qu'il invente des romans pour dyslexiques et d'autres basés sur les univers des jeux vidéo (Fortnite, Minecraft ou Assassin's Creed).
+En 2019, il est recruté par Christophe Arleston pour devenir scénariste de bande dessinée au sein du label Drakoo où il signe de nombreuses séries.
+En 2020, il reprend la célèbre série Frigiel &amp; Fluffy pour lequel il a écrit huit romans à ce jour.
 </t>
         </is>
       </c>
@@ -552,34 +566,176 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Fitz
-Les talons hauts rapprochent les filles du ciel, Le Masque, coll. « Le Masque » no 2539, 2012
+          <t>Série Fitz</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les talons hauts rapprochent les filles du ciel, Le Masque, coll. « Le Masque » no 2539, 2012
 Les mannequins ne sont pas des filles modèles, Le Masque, 2013
 Réédité aux éditions Le Masque, coll. « Masque poche » no 50, en 2014
 Mais je fais quoi du corps ?, Le Masque, 2014
 Réédité aux éditions Le Masque, coll. « Masque poche » no 59, en 2015
 Trois fourmis en file indienne, Le Masque, 2015
-Réédité aux éditions Le Masque, coll. « Masque poche » no 73, 2016
-Série Les Épées de glace
-Première version aux éditions Midgard
+Réédité aux éditions Le Masque, coll. « Masque poche » no 73, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Épées de glace</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Première version aux éditions Midgard
 Le Boucher, Midgard, 2012
 La Servante, Midgard, 2014
 Réédition par les éditions Bragelonne
 Le sang sur la lame, Milady, 2017
 Le Châtiment de l'Empire, Milady, 2017
-Les Épées de glace - Intégrale, Bragelonne, 2015
-Série La Main de l'Empereur
-La Main de l'Empereur, tome 1, Bragelonne, 2016
+Les Épées de glace - Intégrale, Bragelonne, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série La Main de l'Empereur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Main de l'Empereur, tome 1, Bragelonne, 2016
 Réédition en poche, Milady, 2018
 La Main de l'Empereur, tome 2, Bragelonne, 2017
-Réédition en poche, Milady, 2018
-Série La Magie de Paris
-Le Cœur et le Sabre, Castelmore, 2017
+Réédition en poche, Milady, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série La Magie de Paris</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cœur et le Sabre, Castelmore, 2017
 Le Calme et la Tempête, Castelmore, 2018
 Ici et ailleurs, Castelmore, 2018
 Ces trois romans ont fait l'objet d'une réédition sous forme d'intégrale chez France Loisirs.
-Série Le noir est ma couleur
-Ces cinq romans ont fait l'objet d'une nouvelle édition avec une nouvelle couverture en 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Le noir est ma couleur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ces cinq romans ont fait l'objet d'une nouvelle édition avec une nouvelle couverture en 2018.
 Le Pari, Rageot, 2014
 Réédité au Livre de poche (Hachette jeunesse), 2020
 La Menace, Rageot, 2014
@@ -587,33 +743,203 @@
 La Riposte, Rageot, 2015
 Réédité au Livre de poche (Hachette jeunesse), 2020
 L'Évasion, Rageot, 2015
-Le Piège, Rageot, 2016
-Série Les Gardiens de la comète
-Une fille venue des étoiles, Rageot, 2018
+Le Piège, Rageot, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Les Gardiens de la comète</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une fille venue des étoiles, Rageot, 2018
 L'Attaque des pilleurs, Rageot, 2018
-Tous contre l'imposteur, Rageot, 2018
-Série 30 minutes pour survivre
-L'Attaque du robot géant, Albin Michel, 2018
+Tous contre l'imposteur, Rageot, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série 30 minutes pour survivre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Attaque du robot géant, Albin Michel, 2018
 Dans l'enfer de Fortnite, Albin Michel, 2019
 La Forteresse du fou, Albin Michel, 2019
-Fortnite: L'Ultime Bataille, Albin Michel, 2020
-Série Frigiel &amp; Fluffy
-Frigiel &amp; Fluffy Earth: Alice a disparu, Slalom, 2020
+Fortnite: L'Ultime Bataille, Albin Michel, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Frigiel &amp; Fluffy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Frigiel &amp; Fluffy Earth: Alice a disparu, Slalom, 2020
 Cycle des Saintes Îles, tome 1: Les Élus des Dieux, Slalom, 2020
 Cycle des Saintes Îles, tome 2: L'orbe de Domination, Slalom, 2021
 Cycle des Saintes Îles, tome 3: Le Roi Squelette, Slalom, 2021
 Frigiel et Fluffy: L'aventure dont tu es le héros, Slalom, 2022
 Cycle du Warden tome 1: Le tournoi des trois nations, Slalom, 2022
 Cycle du Warden tome 2: Les Anciennes Cités, Slalom, 2023
-Cycle du Warden tome 3: Le Dernier Sacrifice, Slalom, 2023
-Romans indépendants
-Faux frère, vrai secret, Castelmore, 2016
+Cycle du Warden tome 3: Le Dernier Sacrifice, Slalom, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Faux frère, vrai secret, Castelmore, 2016
 Protège-la, Gallimard, 2020
 Furious Jumper: la main du Destin, Slalom, 2023
 Témoins à abattre, Rageot, 2020
-Prix des enfants de la Ville de Châteauroux (2023)[réf. nécessaire]
-Bandes dessinées
-Démonistes, tome 1: Vlad, Drakoo, 2021
+Prix des enfants de la Ville de Châteauroux (2023)[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Démonistes, tome 1: Vlad, Drakoo, 2021
 Démonistes, tome 2: Tillie, Drakoo, 2022
 Nécromants, tome 1: Le réveil de l'Archimage, Drakoo, 2021
 Nécromants, tome 2: Le plan de Montserrat, Drakoo, 2024
@@ -622,38 +948,74 @@
 Astérix - Hors collection - L'Empire du Milieu, Albert René, 2023
 Les Maléfices du Danthrakon: La Diva des Pics (avec Christophe Arleston), Drakoo, 2022
 Succès Damné (avec Christophe Arleston), Drakoo, 2023
-Toutes pour un, Drakoo, 2023
-Nouvelles
-Souvenir des Carpates, Glyphe, 2008Publiée dans l'anthologie Vampires.
+Toutes pour un, Drakoo, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Souvenir des Carpates, Glyphe, 2008Publiée dans l'anthologie Vampires.
 Amrak, Malpertuis, 2012Publiée dans l'anthologie Malpertuis III.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olivier_Gay</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Gay</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations et novélisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Iron man 1 : Le Roman du film, Hachette Jeunesse
 Iron man 2 : Le Roman du film, Hachette jeunesse
